--- a/Theo dõi/CUỐI T12 2025.xlsx
+++ b/Theo dõi/CUỐI T12 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA27AE5D-A054-4844-AC5B-FD1B1213F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE3C695-B6C0-4DB0-8868-D5458C6E369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MẪU" sheetId="1" r:id="rId1"/>
@@ -2257,7 +2257,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -3479,7 +3479,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
